--- a/output/CodeSystem-heart-rate-variability-cs.xlsx
+++ b/output/CodeSystem-heart-rate-variability-cs.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="81" uniqueCount="68">
   <si>
     <t>Property</t>
   </si>
@@ -154,25 +154,22 @@
     <t>loinc-equivalent</t>
   </si>
   <si>
-    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/loinc-equivalent</t>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/concept-property-definitions-cs#loinc-equivalent</t>
   </si>
   <si>
     <t>Equivalent LOINC code if available</t>
   </si>
   <si>
-    <t>code</t>
-  </si>
-  <si>
-    <t>status</t>
-  </si>
-  <si>
-    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/assignment-status</t>
-  </si>
-  <si>
-    <t>Status of LOINC code assignment</t>
-  </si>
-  <si>
     <t>string</t>
+  </si>
+  <si>
+    <t>assignment-status</t>
+  </si>
+  <si>
+    <t>https://2rdoc.pt/ig/ios-lifestyle-medicine/CodeSystem/concept-property-definitions-cs#assignment-status</t>
+  </si>
+  <si>
+    <t>Status of terminology code assignment</t>
   </si>
   <si>
     <t>Level</t>
@@ -618,7 +615,7 @@
         <v>51</v>
       </c>
       <c r="D3" t="s" s="2">
-        <v>52</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -636,87 +633,87 @@
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="1">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B1" t="s" s="1">
         <v>42</v>
       </c>
       <c r="C1" t="s" s="1">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s" s="1">
         <v>54</v>
-      </c>
-      <c r="D1" t="s" s="1">
-        <v>55</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s" s="2">
+        <v>55</v>
+      </c>
+      <c r="B2" t="s" s="2">
         <v>56</v>
       </c>
-      <c r="B2" t="s" s="2">
+      <c r="C2" t="s" s="2">
         <v>57</v>
-      </c>
-      <c r="C2" t="s" s="2">
-        <v>58</v>
       </c>
       <c r="D2" s="2"/>
     </row>
     <row r="3">
       <c r="A3" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" t="s" s="2">
+        <v>58</v>
+      </c>
+      <c r="C3" t="s" s="2">
         <v>59</v>
-      </c>
-      <c r="C3" t="s" s="2">
-        <v>60</v>
       </c>
       <c r="D3" s="2"/>
     </row>
     <row r="4">
       <c r="A4" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B4" t="s" s="2">
+        <v>60</v>
+      </c>
+      <c r="C4" t="s" s="2">
         <v>61</v>
-      </c>
-      <c r="C4" t="s" s="2">
-        <v>62</v>
       </c>
       <c r="D4" s="2"/>
     </row>
     <row r="5">
       <c r="A5" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B5" t="s" s="2">
+        <v>62</v>
+      </c>
+      <c r="C5" t="s" s="2">
         <v>63</v>
-      </c>
-      <c r="C5" t="s" s="2">
-        <v>64</v>
       </c>
       <c r="D5" s="2"/>
     </row>
     <row r="6">
       <c r="A6" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B6" t="s" s="2">
+        <v>64</v>
+      </c>
+      <c r="C6" t="s" s="2">
         <v>65</v>
-      </c>
-      <c r="C6" t="s" s="2">
-        <v>66</v>
       </c>
       <c r="D6" s="2"/>
     </row>
     <row r="7">
       <c r="A7" t="s" s="2">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B7" t="s" s="2">
+        <v>66</v>
+      </c>
+      <c r="C7" t="s" s="2">
         <v>67</v>
-      </c>
-      <c r="C7" t="s" s="2">
-        <v>68</v>
       </c>
       <c r="D7" s="2"/>
     </row>
